--- a/Portfolio/定投资产配置.xlsx
+++ b/Portfolio/定投资产配置.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klq26/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782E867F-C5DF-D144-8C46-81BA985FEFC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7748A8FA-F0D5-4C0B-BD84-E69A49B80F6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-8860" windowWidth="21600" windowHeight="37940" xr2:uid="{1ACA027F-FE03-6443-8AFD-87B5306B9B50}"/>
+    <workbookView xWindow="-14055" yWindow="2700" windowWidth="28800" windowHeight="15435" xr2:uid="{1ACA027F-FE03-6443-8AFD-87B5306B9B50}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工资定投计划" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>华宝香港中小</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -172,6 +178,18 @@
   </si>
   <si>
     <t>网站顺序是为了更新数据方便，从上至下排列好，就可以从网站按顺序抄写数据。101中，100 表示第一个网站，1 表示一号。200 表示第二个网站，也是方便筛选排序。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝油气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投收益率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -180,9 +198,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,6 +221,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -255,14 +282,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,15 +317,9 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -306,6 +327,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -624,21 +654,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9545057-ABA2-6443-8DEB-5A99A111B077}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -670,26 +700,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <v>-36.1</v>
+        <v>-9.51</v>
       </c>
       <c r="C2" s="8">
-        <v>-3.15E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="D2" s="8">
-        <v>0.2021</v>
-      </c>
-      <c r="E2" s="14">
-        <f>D2*$E$16</f>
-        <v>1214.2551989999999</v>
+        <v>0.1958</v>
+      </c>
+      <c r="E2" s="12">
+        <f>D2*$E$18</f>
+        <v>1348.1515300000001</v>
       </c>
       <c r="F2" s="6">
-        <f>E2/$E$18</f>
-        <v>0.12201288995223002</v>
+        <f>E2/$E$20</f>
+        <v>0.10292922349851312</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -702,29 +732,29 @@
       </c>
       <c r="J2" s="6">
         <f>SUMIF(G:G,"=6",F:F)</f>
-        <v>0.12201288995223002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>0.10292922349851312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7">
-        <v>-39.39</v>
+        <v>-0.33</v>
       </c>
       <c r="C3" s="8">
-        <v>-5.7799999999999997E-2</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="D3" s="8">
-        <v>0.1232</v>
-      </c>
-      <c r="E3" s="12">
-        <f>D3*$E$16</f>
-        <v>740.20900799999993</v>
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="E3" s="10">
+        <f>D3*$E$18</f>
+        <v>882.7018700000001</v>
       </c>
       <c r="F3" s="6">
-        <f>E3/$E$18</f>
-        <v>7.4378961118826012E-2</v>
+        <f>E3/$E$20</f>
+        <v>6.73928828013758E-2</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -737,29 +767,29 @@
       </c>
       <c r="J3" s="6">
         <f>SUMIF(G:G,"=3",F:F)</f>
-        <v>0.15950423317852136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>0.22302193680642241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7">
-        <v>-50.85</v>
+        <v>-131.16</v>
       </c>
       <c r="C4" s="8">
-        <v>-4.6699999999999998E-2</v>
+        <v>-9.9599999999999994E-2</v>
       </c>
       <c r="D4" s="8">
-        <v>0.192</v>
-      </c>
-      <c r="E4" s="12">
-        <f>D4*$E$16</f>
-        <v>1153.57248</v>
+        <v>0.1883</v>
+      </c>
+      <c r="E4" s="10">
+        <f>D4*$E$18</f>
+        <v>1296.511405</v>
       </c>
       <c r="F4" s="6">
-        <f>E4/$E$18</f>
-        <v>0.11591526408128731</v>
+        <f>E4/$E$20</f>
+        <v>9.8986582148978638E-2</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -772,204 +802,204 @@
       </c>
       <c r="J4" s="6">
         <f>SUMIF(G:G,"=4",F:F)</f>
-        <v>0.16771489771761258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.13993748363280994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="7">
-        <v>-25.22</v>
+        <v>39.53</v>
       </c>
       <c r="C5" s="8">
-        <v>-4.6600000000000003E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D5" s="8">
-        <v>8.5800000000000001E-2</v>
-      </c>
-      <c r="E5" s="12">
-        <f>D5*$E$16</f>
-        <v>515.502702</v>
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="E5" s="10">
+        <f>D5*$E$18</f>
+        <v>1139.525425</v>
       </c>
       <c r="F5" s="6">
-        <f>E5/$E$18</f>
-        <v>5.1799633636325268E-2</v>
+        <f>E5/$E$20</f>
+        <v>8.7000952446393873E-2</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" s="6">
-        <f>SUMIF(G:G,"=4",F:F)</f>
-        <v>0.16771489771761258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <f>SUMIF(G:G,"=2",F:F)</f>
+        <v>9.3729727016266029E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="7">
-        <v>-9.5</v>
+        <v>17.36</v>
       </c>
       <c r="C6" s="8">
-        <v>-1.09E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="D6" s="8">
-        <v>0.16220000000000001</v>
-      </c>
-      <c r="E6" s="12">
-        <f>D6*$E$16</f>
-        <v>974.52841799999999</v>
+        <v>0.14430000000000001</v>
+      </c>
+      <c r="E6" s="10">
+        <f>D6*$E$18</f>
+        <v>993.55600500000014</v>
       </c>
       <c r="F6" s="6">
-        <f>E6/$E$18</f>
-        <v>9.792424913533751E-2</v>
+        <f>E6/$E$20</f>
+        <v>7.5856419565043132E-2</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J6" s="6">
-        <f>SUMIF(G:G,"=2",F:F)</f>
-        <v>0.10637640380793137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <f>SUMIF(G:G,"=3",F:F)</f>
+        <v>0.22302193680642241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>-21.74</v>
+        <v>-4.3600000000000003</v>
       </c>
       <c r="C7" s="8">
-        <v>-2.8500000000000001E-2</v>
+        <v>-8.0999999999999996E-3</v>
       </c>
       <c r="D7" s="8">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="E7" s="12">
-        <f>D7*$E$16</f>
-        <v>847.15478999999982</v>
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="E7" s="10">
+        <f>D7*$E$18</f>
+        <v>536.36876500000005</v>
       </c>
       <c r="F7" s="6">
-        <f>E7/$E$18</f>
-        <v>8.5125272059695348E-2</v>
+        <f>E7/$E$20</f>
+        <v>4.095090148383132E-2</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" s="6">
-        <f>SUMIF(G:G,"=3",F:F)</f>
-        <v>0.15950423317852136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <f>SUMIF(G:G,"=4",F:F)</f>
+        <v>0.13993748363280994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7">
-        <v>-13.32</v>
+        <v>10.01</v>
       </c>
       <c r="C8" s="8">
-        <v>-4.2500000000000003E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D8" s="8">
-        <v>4.99E-2</v>
+        <v>4.07E-2</v>
       </c>
       <c r="E8" s="12">
-        <f>D8*$E$16</f>
-        <v>299.80868099999998</v>
+        <f>D8*$E$18</f>
+        <v>280.233745</v>
       </c>
       <c r="F8" s="6">
-        <f>E8/$E$18</f>
-        <v>3.0125894154459563E-2</v>
+        <f>E8/$E$20</f>
+        <v>2.1395400390140366E-2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="6">
-        <f>SUMIF(G:G,"=1",F:F)</f>
-        <v>0.12899886865369889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <f>SUMIF(G:G,"=5",F:F)</f>
+        <v>9.2012333703623106E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>-2.7</v>
+        <v>7.01</v>
       </c>
       <c r="C9" s="8">
-        <v>-3.1E-2</v>
+        <v>2.24E-2</v>
       </c>
       <c r="D9" s="8">
-        <v>2.98E-2</v>
-      </c>
-      <c r="E9" s="12">
-        <f>D9*$E$16</f>
-        <v>179.044062</v>
+        <v>4.65E-2</v>
+      </c>
+      <c r="E9" s="10">
+        <f>D9*$E$18</f>
+        <v>320.16877500000004</v>
       </c>
       <c r="F9" s="6">
-        <f>E9/$E$18</f>
-        <v>1.7991014945949801E-2</v>
+        <f>E9/$E$20</f>
+        <v>2.444437636711369E-2</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>108</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="6">
-        <f>SUMIF(G:G,"=5",F:F)</f>
-        <v>0.1050018852757173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <f>SUMIF(G:G,"=1",F:F)</f>
+        <v>0.1049866027630489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="7">
-        <v>-8.6300000000000008</v>
+        <v>-4.45</v>
       </c>
       <c r="C10" s="8">
-        <v>-8.6800000000000002E-2</v>
+        <v>-4.4699999999999997E-2</v>
       </c>
       <c r="D10" s="8">
-        <v>1.4E-2</v>
-      </c>
-      <c r="E10" s="12">
-        <f>D10*$E$16</f>
-        <v>84.114660000000001</v>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="E10" s="10">
+        <f>D10*$E$18</f>
+        <v>88.132480000000015</v>
       </c>
       <c r="F10" s="6">
-        <f>E10/$E$18</f>
-        <v>8.4521546725938659E-3</v>
+        <f>E10/$E$20</f>
+        <v>6.7287745698721554E-3</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -982,29 +1012,29 @@
       </c>
       <c r="J10" s="6">
         <f>SUMIF(G:G,"=2",F:F)</f>
-        <v>0.10637640380793137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>9.3729727016266029E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="9">
-        <v>-16.03</v>
-      </c>
-      <c r="C11" s="10">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="D11" s="13">
-        <f>E11/$E$17</f>
-        <v>0.24950617064815261</v>
-      </c>
-      <c r="E11" s="9">
-        <v>983.97</v>
+      <c r="B11" s="14">
+        <v>54.93</v>
+      </c>
+      <c r="C11" s="9">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="D11" s="11">
+        <f>E11/$E$19</f>
+        <v>0.16980764587525152</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1054.93</v>
       </c>
       <c r="F11" s="6">
-        <f>E11/$E$18</f>
-        <v>9.8872974499239333E-2</v>
+        <f>E11/$E$20</f>
+        <v>8.054222639593521E-2</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1017,99 +1047,99 @@
       </c>
       <c r="J11" s="6">
         <f>SUMIF(G:G,"=1",F:F)</f>
-        <v>0.12899886865369889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0.1049866027630489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="9">
-        <v>-134.08000000000001</v>
-      </c>
-      <c r="C12" s="10">
-        <v>-0.1341</v>
-      </c>
-      <c r="D12" s="5">
-        <f>E12/$E$17</f>
-        <v>0.21957212444246094</v>
-      </c>
-      <c r="E12" s="9">
-        <v>865.92</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="14">
+        <v>44.85</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="D12" s="11">
+        <f>E12/$E$19</f>
+        <v>0.16818511066398389</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1044.8499999999999</v>
       </c>
       <c r="F12" s="6">
-        <f>E12/$E$18</f>
-        <v>8.7010870329767495E-2</v>
+        <f>E12/$E$20</f>
+        <v>7.9772634440003501E-2</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>202</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J12" s="6">
-        <f>SUMIF(G:G,"=5",F:F)</f>
-        <v>0.1050018852757173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <f>SUMIF(G:G,"=3",F:F)</f>
+        <v>0.22302193680642241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="9">
-        <v>52.22</v>
-      </c>
-      <c r="C13" s="10">
-        <v>5.2200000000000003E-2</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="14">
+        <v>-75.06</v>
+      </c>
+      <c r="C13" s="9">
+        <v>-7.51E-2</v>
       </c>
       <c r="D13" s="5">
-        <f>E13/$E$17</f>
-        <v>0.26681238541764396</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1052.22</v>
+        <f>E13/$E$19</f>
+        <v>0.148882092555332</v>
+      </c>
+      <c r="E13" s="14">
+        <v>924.93</v>
       </c>
       <c r="F13" s="6">
-        <f>E13/$E$18</f>
-        <v>0.10573098898095432</v>
+        <f>E13/$E$20</f>
+        <v>7.0616933313482746E-2</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>203</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J13" s="6">
-        <f>SUMIF(G:G,"=7",F:F)</f>
-        <v>0.10573098898095432</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <f>SUMIF(G:G,"=5",F:F)</f>
+        <v>9.2012333703623106E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="9">
-        <v>41.57</v>
-      </c>
-      <c r="C14" s="10">
-        <v>4.1599999999999998E-2</v>
+      <c r="B14" s="14">
+        <v>84.5</v>
+      </c>
+      <c r="C14" s="9">
+        <v>8.4500000000000006E-2</v>
       </c>
       <c r="D14" s="5">
-        <f>E14/$E$17</f>
-        <v>0.26411185520086616</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1041.57</v>
+        <f>E14/$E$19</f>
+        <v>0.17456740442655935</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1084.5</v>
       </c>
       <c r="F14" s="6">
-        <f>E14/$E$18</f>
-        <v>0.10466083727062075</v>
+        <f>E14/$E$20</f>
+        <v>8.2799848830151512E-2</v>
       </c>
       <c r="G14">
         <v>8</v>
@@ -1122,74 +1152,152 @@
       </c>
       <c r="J14" s="6">
         <f>SUMIF(G:G,"=8",F:F)</f>
-        <v>0.10466083727062075</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
+        <v>0.16071645346373642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="14">
+        <v>82.74</v>
+      </c>
+      <c r="C15" s="9">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="D15" s="5">
+        <f>E15/$E$19</f>
+        <v>0.17428410462776661</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1082.74</v>
+      </c>
+      <c r="F15" s="6">
+        <f>E15/$E$20</f>
+        <v>8.2665475631496774E-2</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>205</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="6">
+        <f>SUMIF(G:G,"=7",F:F)</f>
+        <v>8.2665475631496774E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="14">
+        <v>20.54</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <f>E16/$E$19</f>
+        <v>0.16427203219315895</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1020.54</v>
+      </c>
+      <c r="F16" s="6">
+        <f>E16/$E$20</f>
+        <v>7.7916604633584893E-2</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>206</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="6">
+        <f>SUMIF(G:G,"=8",F:F)</f>
+        <v>0.16071645346373642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2">
-        <f>SUM($B$2:$B14)</f>
-        <v>-263.77000000000004</v>
-      </c>
-      <c r="E16" s="11">
-        <f>6008.19</f>
-        <v>6008.19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="B18" s="2">
+        <f>SUM($B$2:$B10)</f>
+        <v>-75.899999999999991</v>
+      </c>
+      <c r="E18" s="13">
+        <v>6885.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B17">
-        <f>SUM(B11:B14)</f>
-        <v>-56.320000000000014</v>
-      </c>
-      <c r="E17" s="11">
-        <f>3943.67</f>
-        <v>3943.67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="B19" s="2">
+        <f>SUM(B11:B16)</f>
+        <v>212.49999999999997</v>
+      </c>
+      <c r="E19" s="13">
+        <v>6212.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2">
-        <f>SUM(B16:B17)</f>
-        <v>-320.09000000000003</v>
-      </c>
-      <c r="E18">
-        <f>SUM(E16:E17)</f>
-        <v>9951.86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="B20" s="2">
+        <f>SUM(B18:B19)</f>
+        <v>136.59999999999997</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E18:E19)</f>
+        <v>13097.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="E21" s="15">
+        <f>B20/E20</f>
+        <v>1.042919257740774E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J18">
-    <sortCondition ref="H1"/>
+  <sortState ref="A2:J16">
+    <sortCondition ref="H2"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Portfolio/定投资产配置.xlsx
+++ b/Portfolio/定投资产配置.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klq26/github/finance-data/Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7748A8FA-F0D5-4C0B-BD84-E69A49B80F6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF0111D-4FE0-5542-81C1-6BB22E2BBF58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14055" yWindow="2700" windowWidth="28800" windowHeight="15435" xr2:uid="{1ACA027F-FE03-6443-8AFD-87B5306B9B50}"/>
+    <workbookView xWindow="28800" yWindow="-8860" windowWidth="21600" windowHeight="37940" xr2:uid="{1ACA027F-FE03-6443-8AFD-87B5306B9B50}"/>
   </bookViews>
   <sheets>
     <sheet name="工资定投计划" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>华宝香港中小</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -190,6 +184,10 @@
   </si>
   <si>
     <t>定投收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信深证基本面60ETF联接A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -198,9 +196,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,21 +652,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9545057-ABA2-6443-8DEB-5A99A111B077}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -700,26 +698,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <v>-9.51</v>
+        <v>38.22</v>
       </c>
       <c r="C2" s="8">
-        <v>-7.0000000000000001E-3</v>
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="D2" s="8">
-        <v>0.1958</v>
+        <v>0.19339999999999999</v>
       </c>
       <c r="E2" s="12">
-        <f>D2*$E$18</f>
-        <v>1348.1515300000001</v>
+        <f t="shared" ref="E2:E11" si="0">D2*$E$19</f>
+        <v>1591.7535580000001</v>
       </c>
       <c r="F2" s="6">
-        <f>E2/$E$20</f>
-        <v>0.10292922349851312</v>
+        <f t="shared" ref="F2:F17" si="1">E2/$E$21</f>
+        <v>0.10257922010967106</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -732,29 +730,29 @@
       </c>
       <c r="J2" s="6">
         <f>SUMIF(G:G,"=6",F:F)</f>
-        <v>0.10292922349851312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.10257922010967106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7">
-        <v>-0.33</v>
+        <v>6.96</v>
       </c>
       <c r="C3" s="8">
-        <v>-4.0000000000000002E-4</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="D3" s="8">
-        <v>0.12820000000000001</v>
+        <v>0.13139999999999999</v>
       </c>
       <c r="E3" s="10">
-        <f>D3*$E$18</f>
-        <v>882.7018700000001</v>
+        <f t="shared" si="0"/>
+        <v>1081.4706180000001</v>
       </c>
       <c r="F3" s="6">
-        <f>E3/$E$20</f>
-        <v>6.73928828013758E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.9694464955588301E-2</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -767,29 +765,29 @@
       </c>
       <c r="J3" s="6">
         <f>SUMIF(G:G,"=3",F:F)</f>
-        <v>0.22302193680642241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.21680739290508472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7">
-        <v>-131.16</v>
+        <v>3.76</v>
       </c>
       <c r="C4" s="8">
-        <v>-9.9599999999999994E-2</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="D4" s="8">
-        <v>0.1883</v>
+        <v>0.18579999999999999</v>
       </c>
       <c r="E4" s="10">
-        <f>D4*$E$18</f>
-        <v>1296.511405</v>
+        <f t="shared" si="0"/>
+        <v>1529.2027460000002</v>
       </c>
       <c r="F4" s="6">
-        <f>E4/$E$20</f>
-        <v>9.8986582148978638E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.8548185606912544E-2</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -802,29 +800,29 @@
       </c>
       <c r="J4" s="6">
         <f>SUMIF(G:G,"=4",F:F)</f>
-        <v>0.13993748363280994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.13350149794004246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7">
-        <v>39.53</v>
+        <v>55.63</v>
       </c>
       <c r="C5" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="D5" s="8">
-        <v>0.16550000000000001</v>
+        <v>0.16569999999999999</v>
       </c>
       <c r="E5" s="10">
-        <f>D5*$E$18</f>
-        <v>1139.525425</v>
+        <f t="shared" si="0"/>
+        <v>1363.772309</v>
       </c>
       <c r="F5" s="6">
-        <f>E5/$E$20</f>
-        <v>8.7000952446393873E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.7887160145669566E-2</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -837,29 +835,29 @@
       </c>
       <c r="J5" s="6">
         <f>SUMIF(G:G,"=2",F:F)</f>
-        <v>9.3729727016266029E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.1059207355527472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7">
-        <v>17.36</v>
+        <v>56.53</v>
       </c>
       <c r="C6" s="8">
-        <v>1.78E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="D6" s="8">
-        <v>0.14430000000000001</v>
+        <v>0.1484</v>
       </c>
       <c r="E6" s="10">
-        <f>D6*$E$18</f>
-        <v>993.55600500000014</v>
+        <f t="shared" si="0"/>
+        <v>1221.3869080000002</v>
       </c>
       <c r="F6" s="6">
-        <f>E6/$E$20</f>
-        <v>7.5856419565043132E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.8711252659127137E-2</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -872,29 +870,29 @@
       </c>
       <c r="J6" s="6">
         <f>SUMIF(G:G,"=3",F:F)</f>
-        <v>0.22302193680642241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.21680739290508472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>-4.3600000000000003</v>
+        <v>1.7</v>
       </c>
       <c r="C7" s="8">
-        <v>-8.0999999999999996E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="D7" s="8">
-        <v>7.7899999999999997E-2</v>
+        <v>6.59E-2</v>
       </c>
       <c r="E7" s="10">
-        <f>D7*$E$18</f>
-        <v>536.36876500000005</v>
+        <f t="shared" si="0"/>
+        <v>542.38138300000003</v>
       </c>
       <c r="F7" s="6">
-        <f>E7/$E$20</f>
-        <v>4.095090148383132E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.4953312333129906E-2</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -907,29 +905,29 @@
       </c>
       <c r="J7" s="6">
         <f>SUMIF(G:G,"=4",F:F)</f>
-        <v>0.13993748363280994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.13350149794004246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="7">
-        <v>10.01</v>
+        <v>23.41</v>
       </c>
       <c r="C8" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>8.6499999999999994E-2</v>
       </c>
       <c r="D8" s="8">
-        <v>4.07E-2</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="E8" s="12">
-        <f>D8*$E$18</f>
-        <v>280.233745</v>
+        <f t="shared" si="0"/>
+        <v>293.82420900000005</v>
       </c>
       <c r="F8" s="6">
-        <f>E8/$E$20</f>
-        <v>2.1395400390140366E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.893525417743153E-2</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -942,29 +940,29 @@
       </c>
       <c r="J8" s="6">
         <f>SUMIF(G:G,"=5",F:F)</f>
-        <v>9.2012333703623106E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7.8098859209489266E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>7.01</v>
+        <v>13.2</v>
       </c>
       <c r="C9" s="8">
-        <v>2.24E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="D9" s="8">
-        <v>4.65E-2</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="E9" s="10">
-        <f>D9*$E$18</f>
-        <v>320.16877500000004</v>
+        <f t="shared" si="0"/>
+        <v>326.74568900000003</v>
       </c>
       <c r="F9" s="6">
-        <f>E9/$E$20</f>
-        <v>2.444437636711369E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.1056851284146545E-2</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -977,29 +975,29 @@
       </c>
       <c r="J9" s="6">
         <f>SUMIF(G:G,"=1",F:F)</f>
-        <v>0.1049866027630489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9.0543121778194791E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B10" s="7">
-        <v>-4.45</v>
+        <v>4.2</v>
       </c>
       <c r="C10" s="8">
-        <v>-4.4699999999999997E-2</v>
+        <v>4.3400000000000001E-2</v>
       </c>
       <c r="D10" s="8">
-        <v>1.2800000000000001E-2</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="E10" s="10">
-        <f>D10*$E$18</f>
-        <v>88.132480000000015</v>
+        <f t="shared" si="0"/>
+        <v>190.12154700000002</v>
       </c>
       <c r="F10" s="6">
-        <f>E10/$E$20</f>
-        <v>6.7287745698721554E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.2252223291279223E-2</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1012,288 +1010,323 @@
       </c>
       <c r="J10" s="6">
         <f>SUMIF(G:G,"=2",F:F)</f>
-        <v>9.3729727016266029E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="14">
-        <v>54.93</v>
-      </c>
-      <c r="C11" s="9">
-        <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="D11" s="11">
-        <f>E11/$E$19</f>
-        <v>0.16980764587525152</v>
-      </c>
-      <c r="E11" s="14">
-        <v>1054.93</v>
+        <v>0.1059207355527472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>-3.4</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-3.4200000000000001E-2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>89.711033000000015</v>
       </c>
       <c r="F11" s="6">
-        <f>E11/$E$20</f>
-        <v>8.054222639593521E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.7813521157984221E-3</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="6">
+        <f>SUMIF(G:G,"=2",F:F)</f>
+        <v>0.1059207355527472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="14">
+        <v>78.239999999999995</v>
+      </c>
+      <c r="C12" s="9">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" ref="D12:D17" si="2">E12/$E$20</f>
+        <v>0.14796883191023943</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1078.24</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="1"/>
+        <v>6.948627049404825E-2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>201</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="6">
         <f>SUMIF(G:G,"=1",F:F)</f>
-        <v>0.1049866027630489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+        <v>9.0543121778194791E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="14">
-        <v>44.85</v>
-      </c>
-      <c r="C12" s="9">
-        <v>4.4900000000000002E-2</v>
-      </c>
-      <c r="D12" s="11">
-        <f>E12/$E$19</f>
-        <v>0.16818511066398389</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1044.8499999999999</v>
-      </c>
-      <c r="F12" s="6">
-        <f>E12/$E$20</f>
-        <v>7.9772634440003501E-2</v>
-      </c>
-      <c r="G12">
+      <c r="B13" s="14">
+        <v>61.41</v>
+      </c>
+      <c r="C13" s="9">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="2"/>
+        <v>0.14565922046839966</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1061.4100000000001</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
+        <v>6.8401675290369265E-2</v>
+      </c>
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>202</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J13" s="6">
         <f>SUMIF(G:G,"=3",F:F)</f>
-        <v>0.22302193680642241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+        <v>0.21680739290508472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="14">
-        <v>-75.06</v>
-      </c>
-      <c r="C13" s="9">
-        <v>-7.51E-2</v>
-      </c>
-      <c r="D13" s="5">
-        <f>E13/$E$19</f>
-        <v>0.148882092555332</v>
-      </c>
-      <c r="E13" s="14">
-        <v>924.93</v>
-      </c>
-      <c r="F13" s="6">
-        <f>E13/$E$20</f>
-        <v>7.0616933313482746E-2</v>
-      </c>
-      <c r="G13">
+      <c r="B14" s="14">
+        <v>-81.94</v>
+      </c>
+      <c r="C14" s="9">
+        <v>-8.1900000000000001E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.12598703982741727</v>
+      </c>
+      <c r="E14" s="14">
+        <v>918.06</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="1"/>
+        <v>5.9163605032057739E-2</v>
+      </c>
+      <c r="G14">
         <v>5</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>203</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J14" s="6">
         <f>SUMIF(G:G,"=5",F:F)</f>
-        <v>9.2012333703623106E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+        <v>7.8098859209489266E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14">
-        <v>84.5</v>
-      </c>
-      <c r="C14" s="9">
-        <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="D14" s="5">
-        <f>E14/$E$19</f>
-        <v>0.17456740442655935</v>
-      </c>
-      <c r="E14" s="14">
-        <v>1084.5</v>
-      </c>
-      <c r="F14" s="6">
-        <f>E14/$E$20</f>
-        <v>8.2799848830151512E-2</v>
-      </c>
-      <c r="G14">
+      <c r="B15" s="14">
+        <v>85.43</v>
+      </c>
+      <c r="C15" s="9">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.28618734338419144</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2085.4299999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.13439378345860201</v>
+      </c>
+      <c r="G15">
         <v>8</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>204</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J15" s="6">
         <f>SUMIF(G:G,"=8",F:F)</f>
-        <v>0.16071645346373642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+        <v>0.20129777648316619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="14">
-        <v>82.74</v>
-      </c>
-      <c r="C15" s="9">
-        <v>8.2699999999999996E-2</v>
-      </c>
-      <c r="D15" s="5">
-        <f>E15/$E$19</f>
-        <v>0.17428410462776661</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1082.74</v>
-      </c>
-      <c r="F15" s="6">
-        <f>E15/$E$20</f>
-        <v>8.2665475631496774E-2</v>
-      </c>
-      <c r="G15">
+      <c r="B16" s="14">
+        <v>105.64</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.1056</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1517289836337338</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1105.6400000000001</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>7.1252040463198843E-2</v>
+      </c>
+      <c r="G16">
         <v>7</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>205</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I16" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J16" s="6">
         <f>SUMIF(G:G,"=7",F:F)</f>
-        <v>8.2665475631496774E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+        <v>7.1252040463198843E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="14">
-        <v>20.54</v>
-      </c>
-      <c r="C16" s="9">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="D16" s="5">
-        <f>E16/$E$19</f>
-        <v>0.16427203219315895</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1020.54</v>
-      </c>
-      <c r="F16" s="6">
-        <f>E16/$E$20</f>
-        <v>7.7916604633584893E-2</v>
-      </c>
-      <c r="G16">
+      <c r="B17" s="14">
+        <v>38.17</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14246995309416574</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1038.17</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="1"/>
+        <v>6.6903993024564179E-2</v>
+      </c>
+      <c r="G17">
         <v>8</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>206</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J17" s="6">
         <f>SUMIF(G:G,"=8",F:F)</f>
-        <v>0.16071645346373642</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+        <v>0.20129777648316619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2">
-        <f>SUM($B$2:$B10)</f>
-        <v>-75.899999999999991</v>
-      </c>
-      <c r="E18" s="13">
-        <v>6885.35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" s="2">
+        <f>SUM($B$2:$B11)</f>
+        <v>200.20999999999995</v>
+      </c>
+      <c r="E19" s="13">
+        <v>8230.3700000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2">
-        <f>SUM(B11:B16)</f>
-        <v>212.49999999999997</v>
-      </c>
-      <c r="E19" s="13">
-        <v>6212.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" s="2">
+        <f>SUM(B12:B17)</f>
+        <v>286.95</v>
+      </c>
+      <c r="E20" s="13">
+        <v>7286.94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2">
-        <f>SUM(B18:B19)</f>
-        <v>136.59999999999997</v>
-      </c>
-      <c r="E20">
-        <f>SUM(E18:E19)</f>
-        <v>13097.85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" s="2">
+        <f>SUM(B19:B20)</f>
+        <v>487.15999999999997</v>
+      </c>
+      <c r="E21">
+        <f>SUM(E19:E20)</f>
+        <v>15517.310000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="E21" s="15">
-        <f>B20/E20</f>
-        <v>1.042919257740774E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="2"/>
+      <c r="E22" s="15">
+        <f>B21/E21</f>
+        <v>3.1394616721583828E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J16">
+  <sortState ref="A2:J17">
     <sortCondition ref="H2"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Portfolio/定投资产配置.xlsx
+++ b/Portfolio/定投资产配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klq26/github/finance-data/Portfolio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF0111D-4FE0-5542-81C1-6BB22E2BBF58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408F8E4A-2156-4826-BA75-DA86CD62341A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-8860" windowWidth="21600" windowHeight="37940" xr2:uid="{1ACA027F-FE03-6443-8AFD-87B5306B9B50}"/>
+    <workbookView xWindow="-13425" yWindow="4575" windowWidth="28800" windowHeight="15435" xr2:uid="{1ACA027F-FE03-6443-8AFD-87B5306B9B50}"/>
   </bookViews>
   <sheets>
     <sheet name="工资定投计划" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,11 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -196,9 +201,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,18 +660,18 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -698,26 +703,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <v>38.22</v>
+        <v>-87.06</v>
       </c>
       <c r="C2" s="8">
-        <v>2.6200000000000001E-2</v>
+        <v>-4.2700000000000002E-2</v>
       </c>
       <c r="D2" s="8">
-        <v>0.19339999999999999</v>
+        <v>0.1845</v>
       </c>
       <c r="E2" s="12">
         <f t="shared" ref="E2:E11" si="0">D2*$E$19</f>
-        <v>1591.7535580000001</v>
+        <v>1949.8181400000001</v>
       </c>
       <c r="F2" s="6">
         <f t="shared" ref="F2:F17" si="1">E2/$E$21</f>
-        <v>0.10257922010967106</v>
+        <v>0.10498471603023841</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -730,29 +735,29 @@
       </c>
       <c r="J2" s="6">
         <f>SUMIF(G:G,"=6",F:F)</f>
-        <v>0.10257922010967106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>0.10498471603023841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7">
-        <v>6.96</v>
+        <v>-92.69</v>
       </c>
       <c r="C3" s="8">
-        <v>7.1000000000000004E-3</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="D3" s="8">
-        <v>0.13139999999999999</v>
+        <v>0.14080000000000001</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" si="0"/>
-        <v>1081.4706180000001</v>
+        <v>1487.9912960000001</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="1"/>
-        <v>6.9694464955588301E-2</v>
+        <v>8.0118417436626399E-2</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -765,29 +770,29 @@
       </c>
       <c r="J3" s="6">
         <f>SUMIF(G:G,"=3",F:F)</f>
-        <v>0.21680739290508472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>0.26231063815123518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7">
-        <v>3.76</v>
+        <v>-129.82</v>
       </c>
       <c r="C4" s="8">
-        <v>2.5999999999999999E-3</v>
+        <v>-6.2799999999999995E-2</v>
       </c>
       <c r="D4" s="8">
-        <v>0.18579999999999999</v>
+        <v>0.1835</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" si="0"/>
-        <v>1529.2027460000002</v>
+        <v>1939.2500200000002</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="1"/>
-        <v>9.8548185606912544E-2</v>
+        <v>0.10441569317912601</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -800,29 +805,29 @@
       </c>
       <c r="J4" s="6">
         <f>SUMIF(G:G,"=4",F:F)</f>
-        <v>0.13350149794004246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.13064764661540781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7">
-        <v>55.63</v>
+        <v>-21.83</v>
       </c>
       <c r="C5" s="8">
-        <v>4.6199999999999998E-2</v>
+        <v>-1.17E-2</v>
       </c>
       <c r="D5" s="8">
-        <v>0.16569999999999999</v>
+        <v>0.17419999999999999</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" si="0"/>
-        <v>1363.772309</v>
+        <v>1840.966504</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>8.7887160145669566E-2</v>
+        <v>9.912378066378065E-2</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -835,29 +840,29 @@
       </c>
       <c r="J5" s="6">
         <f>SUMIF(G:G,"=2",F:F)</f>
-        <v>0.1059207355527472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0.1372483116883117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7">
-        <v>56.53</v>
+        <v>-59.84</v>
       </c>
       <c r="C6" s="8">
-        <v>5.2600000000000001E-2</v>
+        <v>-3.8899999999999997E-2</v>
       </c>
       <c r="D6" s="8">
-        <v>0.1484</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="0"/>
-        <v>1221.3869080000002</v>
+        <v>1479.5368000000003</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="1"/>
-        <v>7.8711252659127137E-2</v>
+        <v>7.9663199155736483E-2</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -870,29 +875,29 @@
       </c>
       <c r="J6" s="6">
         <f>SUMIF(G:G,"=3",F:F)</f>
-        <v>0.21680739290508472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0.26231063815123518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>1.7</v>
+        <v>-53.82</v>
       </c>
       <c r="C7" s="8">
-        <v>3.0999999999999999E-3</v>
+        <v>-9.9500000000000005E-2</v>
       </c>
       <c r="D7" s="8">
-        <v>6.59E-2</v>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>542.38138300000003</v>
+        <v>487.19033200000007</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
-        <v>3.4953312333129906E-2</v>
+        <v>2.6231953436281798E-2</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -905,29 +910,29 @@
       </c>
       <c r="J7" s="6">
         <f>SUMIF(G:G,"=4",F:F)</f>
-        <v>0.13350149794004246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.13064764661540781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="7">
-        <v>23.41</v>
+        <v>13.86</v>
       </c>
       <c r="C8" s="8">
-        <v>8.6499999999999994E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="D8" s="8">
-        <v>3.5700000000000003E-2</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
-        <v>293.82420900000005</v>
+        <v>370.941012</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="1"/>
-        <v>1.893525417743153E-2</v>
+        <v>1.9972702074045355E-2</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -940,29 +945,29 @@
       </c>
       <c r="J8" s="6">
         <f>SUMIF(G:G,"=5",F:F)</f>
-        <v>7.8098859209489266E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>6.5209182012017836E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>13.2</v>
+        <v>-8.6300000000000008</v>
       </c>
       <c r="C9" s="8">
-        <v>4.2099999999999999E-2</v>
+        <v>-2.75E-2</v>
       </c>
       <c r="D9" s="8">
-        <v>3.9699999999999999E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>326.74568900000003</v>
+        <v>304.36185599999999</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="1"/>
-        <v>2.1056851284146545E-2</v>
+        <v>1.6387858112037215E-2</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -975,29 +980,29 @@
       </c>
       <c r="J9" s="6">
         <f>SUMIF(G:G,"=1",F:F)</f>
-        <v>9.0543121778194791E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>7.0793858413559896E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="7">
-        <v>4.2</v>
+        <v>-31.05</v>
       </c>
       <c r="C10" s="8">
-        <v>4.3400000000000001E-2</v>
+        <v>-4.7500000000000001E-2</v>
       </c>
       <c r="D10" s="8">
-        <v>2.3099999999999999E-2</v>
+        <v>5.8900000000000001E-2</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="0"/>
-        <v>190.12154700000002</v>
+        <v>622.46226800000011</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="1"/>
-        <v>1.2252223291279223E-2</v>
+        <v>3.3515445930520561E-2</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1010,29 +1015,29 @@
       </c>
       <c r="J10" s="6">
         <f>SUMIF(G:G,"=2",F:F)</f>
-        <v>0.1059207355527472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>0.1372483116883117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="7">
-        <v>-3.4</v>
+        <v>-7.43</v>
       </c>
       <c r="C11" s="8">
-        <v>-3.4200000000000001E-2</v>
+        <v>-7.4700000000000003E-2</v>
       </c>
       <c r="D11" s="8">
-        <v>1.09E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="0"/>
-        <v>89.711033000000015</v>
+        <v>85.601771999999997</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="1"/>
-        <v>5.7813521157984221E-3</v>
+        <v>4.6090850940104667E-3</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1045,29 +1050,29 @@
       </c>
       <c r="J11" s="6">
         <f>SUMIF(G:G,"=2",F:F)</f>
-        <v>0.1059207355527472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0.1372483116883117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="14">
-        <v>78.239999999999995</v>
+        <v>10.45</v>
       </c>
       <c r="C12" s="9">
-        <v>7.8200000000000006E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" ref="D12:D17" si="2">E12/$E$20</f>
-        <v>0.14796883191023943</v>
+        <v>0.12623871228892544</v>
       </c>
       <c r="E12" s="14">
-        <v>1078.24</v>
+        <v>1010.45</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="1"/>
-        <v>6.948627049404825E-2</v>
+        <v>5.4406000301522685E-2</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1080,29 +1085,29 @@
       </c>
       <c r="J12" s="6">
         <f>SUMIF(G:G,"=1",F:F)</f>
-        <v>9.0543121778194791E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>7.0793858413559896E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="14">
-        <v>61.41</v>
+        <v>-95.79</v>
       </c>
       <c r="C13" s="9">
-        <v>6.1400000000000003E-2</v>
+        <v>-4.7899999999999998E-2</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" si="2"/>
-        <v>0.14565922046839966</v>
+        <v>0.23789897404888385</v>
       </c>
       <c r="E13" s="14">
-        <v>1061.4100000000001</v>
+        <v>1904.21</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="1"/>
-        <v>6.8401675290369265E-2</v>
+        <v>0.10252902155887229</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1115,29 +1120,29 @@
       </c>
       <c r="J13" s="6">
         <f>SUMIF(G:G,"=3",F:F)</f>
-        <v>0.21680739290508472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>0.26231063815123518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="14">
-        <v>-81.94</v>
+        <v>-159.85</v>
       </c>
       <c r="C14" s="9">
-        <v>-8.1900000000000001E-2</v>
+        <v>-0.15989999999999999</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="2"/>
-        <v>0.12598703982741727</v>
+        <v>0.10496259501166876</v>
       </c>
       <c r="E14" s="14">
-        <v>918.06</v>
+        <v>840.15</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="1"/>
-        <v>5.9163605032057739E-2</v>
+        <v>4.5236479937972474E-2</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -1150,29 +1155,29 @@
       </c>
       <c r="J14" s="6">
         <f>SUMIF(G:G,"=5",F:F)</f>
-        <v>7.8098859209489266E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>6.5209182012017836E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="14">
-        <v>85.43</v>
+        <v>308.31</v>
       </c>
       <c r="C15" s="9">
-        <v>4.2700000000000002E-2</v>
+        <v>0.1542</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="2"/>
-        <v>0.28618734338419144</v>
+        <v>0.28838446431159331</v>
       </c>
       <c r="E15" s="14">
-        <v>2085.4299999999998</v>
+        <v>2308.31</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="1"/>
-        <v>0.13439378345860201</v>
+        <v>0.12428711421248734</v>
       </c>
       <c r="G15">
         <v>8</v>
@@ -1185,29 +1190,29 @@
       </c>
       <c r="J15" s="6">
         <f>SUMIF(G:G,"=8",F:F)</f>
-        <v>0.20129777648316619</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>0.17199661863840968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="14">
-        <v>105.64</v>
+        <v>55.08</v>
       </c>
       <c r="C16" s="9">
-        <v>0.1056</v>
+        <v>5.5100000000000003E-2</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="2"/>
-        <v>0.1517289836337338</v>
+        <v>0.13181447925359932</v>
       </c>
       <c r="E16" s="14">
-        <v>1105.6400000000001</v>
+        <v>1055.08</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="1"/>
-        <v>7.1252040463198843E-2</v>
+        <v>5.680902845081949E-2</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -1220,29 +1225,29 @@
       </c>
       <c r="J16" s="6">
         <f>SUMIF(G:G,"=7",F:F)</f>
-        <v>7.1252040463198843E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>5.680902845081949E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="14">
-        <v>38.17</v>
+        <v>-113.92</v>
       </c>
       <c r="C17" s="9">
-        <v>3.8199999999999998E-2</v>
+        <v>-0.1139</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="2"/>
-        <v>0.14246995309416574</v>
+        <v>0.11070077508532936</v>
       </c>
       <c r="E17" s="14">
-        <v>1038.17</v>
+        <v>886.08</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="1"/>
-        <v>6.6903993024564179E-2</v>
+        <v>4.7709504425922332E-2</v>
       </c>
       <c r="G17">
         <v>8</v>
@@ -1255,72 +1260,71 @@
       </c>
       <c r="J17" s="6">
         <f>SUMIF(G:G,"=8",F:F)</f>
-        <v>0.20129777648316619</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>0.17199661863840968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <f>SUM($B$2:$B11)</f>
-        <v>200.20999999999995</v>
+        <v>-477.43</v>
       </c>
       <c r="E19" s="13">
-        <v>8230.3700000000008</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>10568.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2">
         <f>SUM(B12:B17)</f>
-        <v>286.95</v>
+        <v>4.2800000000000011</v>
       </c>
       <c r="E20" s="13">
-        <v>7286.94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>8004.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="2">
         <f>SUM(B19:B20)</f>
-        <v>487.15999999999997</v>
-      </c>
-      <c r="E21">
+        <v>-473.15</v>
+      </c>
+      <c r="E21" s="2">
         <f>SUM(E19:E20)</f>
-        <v>15517.310000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>18572.400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="2"/>
       <c r="E22" s="15">
         <f>B21/E21</f>
-        <v>3.1394616721583828E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>-2.5475975102840772E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>

--- a/Portfolio/定投资产配置.xlsx
+++ b/Portfolio/定投资产配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408F8E4A-2156-4826-BA75-DA86CD62341A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC2E3D4-DE3E-418D-98C8-3BB2B99AAB20}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13425" yWindow="4575" windowWidth="28800" windowHeight="15435" xr2:uid="{1ACA027F-FE03-6443-8AFD-87B5306B9B50}"/>
+    <workbookView xWindow="9600" yWindow="3030" windowWidth="28800" windowHeight="15435" xr2:uid="{1ACA027F-FE03-6443-8AFD-87B5306B9B50}"/>
   </bookViews>
   <sheets>
     <sheet name="工资定投计划" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>华宝香港中小</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>建信深证基本面60ETF联接A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证红利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国海外互联网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外互联网</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -657,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9545057-ABA2-6443-8DEB-5A99A111B077}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -708,21 +720,21 @@
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <v>-87.06</v>
+        <v>5.13</v>
       </c>
       <c r="C2" s="8">
-        <v>-4.2700000000000002E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="D2" s="8">
-        <v>0.1845</v>
+        <v>0.1832</v>
       </c>
       <c r="E2" s="12">
-        <f t="shared" ref="E2:E11" si="0">D2*$E$19</f>
-        <v>1949.8181400000001</v>
+        <f t="shared" ref="E2:E11" si="0">D2*$E$21</f>
+        <v>2253.523048</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F17" si="1">E2/$E$21</f>
-        <v>0.10498471603023841</v>
+        <f t="shared" ref="F2:F19" si="1">E2/$E$23</f>
+        <v>9.9963805266199982E-2</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -735,7 +747,7 @@
       </c>
       <c r="J2" s="6">
         <f>SUMIF(G:G,"=6",F:F)</f>
-        <v>0.10498471603023841</v>
+        <v>9.9963805266199982E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -743,21 +755,21 @@
         <v>3</v>
       </c>
       <c r="B3" s="7">
-        <v>-92.69</v>
+        <v>-13.95</v>
       </c>
       <c r="C3" s="8">
-        <v>-5.8599999999999999E-2</v>
+        <v>-7.7999999999999996E-3</v>
       </c>
       <c r="D3" s="8">
-        <v>0.14080000000000001</v>
+        <v>0.14480000000000001</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" si="0"/>
-        <v>1487.9912960000001</v>
+        <v>1781.168872</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="1"/>
-        <v>8.0118417436626399E-2</v>
+        <v>7.9010693245337105E-2</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -770,7 +782,7 @@
       </c>
       <c r="J3" s="6">
         <f>SUMIF(G:G,"=3",F:F)</f>
-        <v>0.26231063815123518</v>
+        <v>0.2456345369086016</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -778,21 +790,21 @@
         <v>4</v>
       </c>
       <c r="B4" s="7">
-        <v>-129.82</v>
+        <v>-64.010000000000005</v>
       </c>
       <c r="C4" s="8">
-        <v>-6.2799999999999995E-2</v>
+        <v>-2.7799999999999998E-2</v>
       </c>
       <c r="D4" s="8">
-        <v>0.1835</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" si="0"/>
-        <v>1939.2500200000002</v>
+        <v>2236.301802</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="1"/>
-        <v>0.10441569317912601</v>
+        <v>9.9199889723772694E-2</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -805,7 +817,7 @@
       </c>
       <c r="J4" s="6">
         <f>SUMIF(G:G,"=4",F:F)</f>
-        <v>0.13064764661540781</v>
+        <v>0.16672817584223137</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -813,21 +825,21 @@
         <v>6</v>
       </c>
       <c r="B5" s="7">
-        <v>-21.83</v>
+        <v>25.51</v>
       </c>
       <c r="C5" s="8">
-        <v>-1.17E-2</v>
+        <v>1.21E-2</v>
       </c>
       <c r="D5" s="8">
-        <v>0.17419999999999999</v>
+        <v>0.1729</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" si="0"/>
-        <v>1840.966504</v>
+        <v>2126.8238809999998</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>9.912378066378065E-2</v>
+        <v>9.4343569489770615E-2</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -840,7 +852,7 @@
       </c>
       <c r="J5" s="6">
         <f>SUMIF(G:G,"=2",F:F)</f>
-        <v>0.1372483116883117</v>
+        <v>0.1357041395726197</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -848,21 +860,21 @@
         <v>7</v>
       </c>
       <c r="B6" s="7">
-        <v>-59.84</v>
+        <v>12.02</v>
       </c>
       <c r="C6" s="8">
-        <v>-3.8899999999999997E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="D6" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.1419</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="0"/>
-        <v>1479.5368000000003</v>
+        <v>1745.4962909999999</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="1"/>
-        <v>7.9663199155736483E-2</v>
+        <v>7.7428296764594853E-2</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -875,7 +887,7 @@
       </c>
       <c r="J6" s="6">
         <f>SUMIF(G:G,"=3",F:F)</f>
-        <v>0.26231063815123518</v>
+        <v>0.2456345369086016</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -883,21 +895,21 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>-53.82</v>
+        <v>-36.590000000000003</v>
       </c>
       <c r="C7" s="8">
-        <v>-9.9500000000000005E-2</v>
+        <v>-6.7599999999999993E-2</v>
       </c>
       <c r="D7" s="8">
-        <v>4.6100000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>487.19033200000007</v>
+        <v>504.33648999999997</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
-        <v>2.6231953436281798E-2</v>
+        <v>2.2371812313942134E-2</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -910,7 +922,7 @@
       </c>
       <c r="J7" s="6">
         <f>SUMIF(G:G,"=4",F:F)</f>
-        <v>0.13064764661540781</v>
+        <v>0.16672817584223137</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -918,21 +930,21 @@
         <v>9</v>
       </c>
       <c r="B8" s="7">
-        <v>13.86</v>
+        <v>45.51</v>
       </c>
       <c r="C8" s="8">
-        <v>3.8800000000000001E-2</v>
+        <v>0.12759999999999999</v>
       </c>
       <c r="D8" s="8">
-        <v>3.5099999999999999E-2</v>
+        <v>3.27E-2</v>
       </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
-        <v>370.941012</v>
+        <v>402.239103</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="1"/>
-        <v>1.9972702074045355E-2</v>
+        <v>1.7842884455266047E-2</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -945,7 +957,7 @@
       </c>
       <c r="J8" s="6">
         <f>SUMIF(G:G,"=5",F:F)</f>
-        <v>6.5209182012017836E-2</v>
+        <v>5.768560553670056E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -953,21 +965,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>-8.6300000000000008</v>
+        <v>5.76</v>
       </c>
       <c r="C9" s="8">
-        <v>-2.75E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="D9" s="8">
-        <v>2.8799999999999999E-2</v>
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>304.36185599999999</v>
+        <v>318.593051</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="1"/>
-        <v>1.6387858112037215E-2</v>
+        <v>1.413243753490491E-2</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -980,7 +992,7 @@
       </c>
       <c r="J9" s="6">
         <f>SUMIF(G:G,"=1",F:F)</f>
-        <v>7.0793858413559896E-2</v>
+        <v>6.1116054462084013E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -988,21 +1000,21 @@
         <v>40</v>
       </c>
       <c r="B10" s="7">
-        <v>-31.05</v>
+        <v>-2.23</v>
       </c>
       <c r="C10" s="8">
-        <v>-4.7500000000000001E-2</v>
+        <v>-2.5999999999999999E-3</v>
       </c>
       <c r="D10" s="8">
-        <v>5.8900000000000001E-2</v>
+        <v>6.8699999999999997E-2</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="0"/>
-        <v>622.46226800000011</v>
+        <v>845.07114299999989</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="1"/>
-        <v>3.3515445930520561E-2</v>
+        <v>3.7486426974824988E-2</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1015,7 +1027,7 @@
       </c>
       <c r="J10" s="6">
         <f>SUMIF(G:G,"=2",F:F)</f>
-        <v>0.1372483116883117</v>
+        <v>0.1357041395726197</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1023,21 +1035,21 @@
         <v>10</v>
       </c>
       <c r="B11" s="7">
-        <v>-7.43</v>
+        <v>-5.38</v>
       </c>
       <c r="C11" s="8">
-        <v>-7.4700000000000003E-2</v>
+        <v>-5.4100000000000002E-2</v>
       </c>
       <c r="D11" s="8">
-        <v>8.0999999999999996E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="0"/>
-        <v>85.601771999999997</v>
+        <v>87.336319000000003</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="1"/>
-        <v>4.6090850940104667E-3</v>
+        <v>3.8741431080241261E-3</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1050,7 +1062,7 @@
       </c>
       <c r="J11" s="6">
         <f>SUMIF(G:G,"=2",F:F)</f>
-        <v>0.1372483116883117</v>
+        <v>0.1357041395726197</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1058,21 +1070,21 @@
         <v>21</v>
       </c>
       <c r="B12" s="14">
-        <v>10.45</v>
+        <v>59.17</v>
       </c>
       <c r="C12" s="9">
-        <v>1.04E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" ref="D12:D17" si="2">E12/$E$20</f>
-        <v>0.12623871228892544</v>
+        <f t="shared" ref="D12:D19" si="2">E12/$E$22</f>
+        <v>0.10340932389553333</v>
       </c>
       <c r="E12" s="14">
-        <v>1010.45</v>
+        <v>1059.17</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="1"/>
-        <v>5.4406000301522685E-2</v>
+        <v>4.6983616927179103E-2</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1085,7 +1097,7 @@
       </c>
       <c r="J12" s="6">
         <f>SUMIF(G:G,"=1",F:F)</f>
-        <v>7.0793858413559896E-2</v>
+        <v>6.1116054462084013E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1093,21 +1105,21 @@
         <v>37</v>
       </c>
       <c r="B13" s="14">
-        <v>-95.79</v>
+        <v>10.77</v>
       </c>
       <c r="C13" s="9">
-        <v>-4.7899999999999998E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" si="2"/>
-        <v>0.23789897404888385</v>
+        <v>0.19631632902123505</v>
       </c>
       <c r="E13" s="14">
-        <v>1904.21</v>
+        <v>2010.77</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="1"/>
-        <v>0.10252902155887229</v>
+        <v>8.9195546898669639E-2</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1120,7 +1132,7 @@
       </c>
       <c r="J13" s="6">
         <f>SUMIF(G:G,"=3",F:F)</f>
-        <v>0.26231063815123518</v>
+        <v>0.2456345369086016</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1128,21 +1140,21 @@
         <v>22</v>
       </c>
       <c r="B14" s="14">
-        <v>-159.85</v>
+        <v>-101.81</v>
       </c>
       <c r="C14" s="9">
-        <v>-0.15989999999999999</v>
+        <v>-0.1018</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="2"/>
-        <v>0.10496259501166876</v>
+        <v>8.7692457896021481E-2</v>
       </c>
       <c r="E14" s="14">
-        <v>840.15</v>
+        <v>898.19</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="1"/>
-        <v>4.5236479937972474E-2</v>
+        <v>3.9842721081434516E-2</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -1155,7 +1167,7 @@
       </c>
       <c r="J14" s="6">
         <f>SUMIF(G:G,"=5",F:F)</f>
-        <v>6.5209182012017836E-2</v>
+        <v>5.768560553670056E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1163,21 +1175,21 @@
         <v>24</v>
       </c>
       <c r="B15" s="14">
-        <v>308.31</v>
+        <v>304.27999999999997</v>
       </c>
       <c r="C15" s="9">
-        <v>0.1542</v>
+        <v>0.15210000000000001</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="2"/>
-        <v>0.28838446431159331</v>
+        <v>0.22497241884305591</v>
       </c>
       <c r="E15" s="14">
-        <v>2308.31</v>
+        <v>2304.2800000000002</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="1"/>
-        <v>0.12428711421248734</v>
+        <v>0.10221532786328943</v>
       </c>
       <c r="G15">
         <v>8</v>
@@ -1190,7 +1202,7 @@
       </c>
       <c r="J15" s="6">
         <f>SUMIF(G:G,"=8",F:F)</f>
-        <v>0.17199661863840968</v>
+        <v>0.14073881523586296</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1198,21 +1210,21 @@
         <v>23</v>
       </c>
       <c r="B16" s="14">
-        <v>55.08</v>
+        <v>40.770000000000003</v>
       </c>
       <c r="C16" s="9">
-        <v>5.5100000000000003E-2</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="2"/>
-        <v>0.13181447925359932</v>
+        <v>0.1016128874786429</v>
       </c>
       <c r="E16" s="14">
-        <v>1055.08</v>
+        <v>1040.77</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="1"/>
-        <v>5.680902845081949E-2</v>
+        <v>4.6167413153035103E-2</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -1225,112 +1237,181 @@
       </c>
       <c r="J16" s="6">
         <f>SUMIF(G:G,"=7",F:F)</f>
-        <v>5.680902845081949E-2</v>
+        <v>4.6167413153035103E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B17" s="14">
-        <v>-113.92</v>
+        <v>17.98</v>
       </c>
       <c r="C17" s="9">
-        <v>-0.1139</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="2"/>
-        <v>0.11070077508532936</v>
+        <v>9.9387844764461802E-2</v>
       </c>
       <c r="E17" s="14">
-        <v>886.08</v>
+        <v>1017.98</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="1"/>
-        <v>4.7709504425922332E-2</v>
+        <v>4.5156473804516539E-2</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>206</v>
       </c>
       <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="6">
+        <f>SUMIF(G:G,"=4",F:F)</f>
+        <v>0.16672817584223137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="14">
+        <v>42.89</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10181986819624116</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1042.8900000000001</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="1"/>
+        <v>4.6261454022664746E-2</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>207</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="6">
+        <f>SUMIF(G:G,"=9",F:F)</f>
+        <v>4.6261454022664746E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="14">
+        <v>-131.55000000000001</v>
+      </c>
+      <c r="C19" s="9">
+        <v>-0.13150000000000001</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="2"/>
+        <v>8.4788869904808398E-2</v>
+      </c>
+      <c r="E19" s="14">
+        <v>868.45</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="1"/>
+        <v>3.8523487372573516E-2</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>206</v>
+      </c>
+      <c r="I19" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J19" s="6">
         <f>SUMIF(G:G,"=8",F:F)</f>
-        <v>0.17199661863840968</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2">
-        <v>-477.43</v>
-      </c>
-      <c r="E19" s="13">
-        <v>10568.12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2">
-        <f>SUM(B12:B17)</f>
-        <v>4.2800000000000011</v>
-      </c>
-      <c r="E20" s="13">
-        <v>8004.28</v>
+        <v>0.14073881523586296</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <f>SUM(B19:B20)</f>
-        <v>-473.15</v>
-      </c>
-      <c r="E21" s="2">
-        <f>SUM(E19:E20)</f>
-        <v>18572.400000000001</v>
+        <v>-17.350000000000001</v>
+      </c>
+      <c r="E21" s="13">
+        <v>12300.89</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="E22" s="15">
-        <f>B21/E21</f>
-        <v>-2.5475975102840772E-2</v>
+        <v>26</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-25.15</v>
+      </c>
+      <c r="E22" s="13">
+        <v>10242.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2">
+        <f>SUM(B21:B22)</f>
+        <v>-42.5</v>
+      </c>
+      <c r="E23" s="2">
+        <f>SUM(E21:E22)</f>
+        <v>22543.39</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="E24" s="15">
+        <f>B23/E23</f>
+        <v>-1.8852532826695541E-3</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J17">
+  <sortState ref="A2:J19">
     <sortCondition ref="H2"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
